--- a/guias_leer.xlsx
+++ b/guias_leer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Desktop\pantallas_sepomex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Desktop\PROYECTO-PARA-ASEA-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F9002-E590-40A6-8565-EF6E3392BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBFA972-6056-4156-A036-D32DB788719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{943EAF09-BF4A-406A-AC0C-1900ACB3DD88}"/>
   </bookViews>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Guias </t>
   </si>
   <si>
     <t xml:space="preserve">Periodo </t>
-  </si>
-  <si>
-    <t>EM041370371MX</t>
-  </si>
-  <si>
-    <t>EL027094908MX</t>
-  </si>
-  <si>
-    <t>EM041410257MX</t>
   </si>
 </sst>
 </file>
@@ -422,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031BC436-589C-4ABB-B03D-3C9421C68458}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,30 +432,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2025</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/guias_leer.xlsx
+++ b/guias_leer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Desktop\PROYECTO-PARA-ASEA-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBFA972-6056-4156-A036-D32DB788719F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE598A11-CBFB-465E-9A22-33D621512D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{943EAF09-BF4A-406A-AC0C-1900ACB3DD88}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A2:B4"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
